--- a/Consolidated Data v2.xlsx
+++ b/Consolidated Data v2.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="420" windowWidth="16200" windowHeight="24690"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="16200" windowHeight="24690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructor Hours" sheetId="1" r:id="rId1"/>
+    <sheet name="2018 Results" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
     <t>Instructor</t>
   </si>
@@ -225,6 +226,39 @@
   </si>
   <si>
     <t>Active/Inactive</t>
+  </si>
+  <si>
+    <t>Merit TDY</t>
+  </si>
+  <si>
+    <t>TDY ID</t>
+  </si>
+  <si>
+    <t>2,3,8</t>
+  </si>
+  <si>
+    <t>8,12</t>
+  </si>
+  <si>
+    <t>2,4,10</t>
+  </si>
+  <si>
+    <t>3,10</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>2,6,13</t>
+  </si>
+  <si>
+    <t>3,13</t>
+  </si>
+  <si>
+    <t>2018 Results</t>
+  </si>
+  <si>
+    <t>Annual Hours</t>
   </si>
 </sst>
 </file>
@@ -467,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -494,15 +528,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,6 +589,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,14 +610,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -866,82 +913,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="17" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="14" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="H1" s="40" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="H1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="37" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="25" t="s">
         <v>61</v>
       </c>
       <c r="N2" s="9" t="s">
@@ -953,40 +1000,40 @@
       <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="23">
         <v>43364</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="24">
         <v>408</v>
       </c>
-      <c r="E3" s="27">
-        <v>0</v>
-      </c>
-      <c r="F3" s="27">
-        <v>1</v>
-      </c>
-      <c r="H3" s="27">
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="24">
+        <v>1</v>
+      </c>
+      <c r="H3" s="24">
         <v>1</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="27">
-        <v>0</v>
-      </c>
-      <c r="K3" s="27">
+      <c r="J3" s="24">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24">
         <v>1276.56</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="24">
         <v>4</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M3" s="35">
         <v>4</v>
       </c>
       <c r="N3" s="7">
@@ -995,41 +1042,41 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
         <v>43361</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="15">
         <v>424</v>
       </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
         <v>1</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="29">
+      <c r="H4" s="26">
         <v>2</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="29">
-        <v>1</v>
-      </c>
-      <c r="K4" s="29">
+      <c r="J4" s="26">
+        <v>1</v>
+      </c>
+      <c r="K4" s="26">
         <v>1282.94</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="26">
         <v>4</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="34">
         <v>6</v>
       </c>
       <c r="N4" s="12">
@@ -1038,40 +1085,40 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>43361</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <v>408</v>
       </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>1</v>
-      </c>
-      <c r="H5" s="18">
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15">
         <v>3</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18">
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
         <v>1858.48</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="15">
         <v>6</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="33">
         <v>3</v>
       </c>
       <c r="N5" s="3">
@@ -1080,40 +1127,40 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>43361</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>416</v>
       </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <v>1</v>
-      </c>
-      <c r="H6" s="18">
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
         <v>4</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="18">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
         <v>448.47</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="15">
         <v>4</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="33">
         <v>4</v>
       </c>
       <c r="N6" s="3">
@@ -1122,40 +1169,40 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>43318</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <v>368</v>
       </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
         <v>5</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="18">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18">
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
         <v>1267.52</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="15">
         <v>2</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="33">
         <v>3</v>
       </c>
       <c r="N7" s="3">
@@ -1164,40 +1211,40 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>43270</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <v>328</v>
       </c>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
         <v>6</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="18">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18">
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
         <v>1288.1199999999999</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="15">
         <v>3</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="33">
         <v>4</v>
       </c>
       <c r="N8" s="3">
@@ -1206,40 +1253,40 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>43270</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>328</v>
       </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
         <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="18">
-        <v>1</v>
-      </c>
-      <c r="K9" s="18">
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
+      <c r="K9" s="15">
         <v>2310.44</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="15">
         <v>2</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="33">
         <v>5</v>
       </c>
       <c r="N9" s="3">
@@ -1248,40 +1295,40 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>43270</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>368</v>
       </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
         <v>8</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="18">
-        <v>0</v>
-      </c>
-      <c r="K10" s="18">
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
         <v>1048.0999999999999</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="15">
         <v>5</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="33">
         <v>3</v>
       </c>
       <c r="N10" s="3">
@@ -1290,40 +1337,40 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>43224</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <v>368</v>
       </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18">
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
         <v>9</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="18">
-        <v>1</v>
-      </c>
-      <c r="K11" s="18">
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
+      <c r="K11" s="15">
         <v>2555.2800000000002</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="15">
         <v>3</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="33">
         <v>5</v>
       </c>
       <c r="N11" s="3">
@@ -1332,40 +1379,40 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="19">
         <v>43178</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>64</v>
       </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18">
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
         <v>10</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="18">
-        <v>0</v>
-      </c>
-      <c r="K12" s="18">
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
         <v>1160.29</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="15">
         <v>4</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="33">
         <v>4</v>
       </c>
       <c r="N12" s="3">
@@ -1374,127 +1421,127 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <v>10</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="19">
         <v>43178</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>248</v>
       </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="36">
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="H13" s="33">
         <v>11</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="36">
-        <v>1</v>
-      </c>
-      <c r="K13" s="36">
+      <c r="J13" s="33">
+        <v>1</v>
+      </c>
+      <c r="K13" s="33">
         <v>3318.6</v>
       </c>
-      <c r="L13" s="36">
-        <v>1</v>
-      </c>
-      <c r="M13" s="36">
+      <c r="L13" s="33">
+        <v>1</v>
+      </c>
+      <c r="M13" s="33">
         <v>5</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="18">
         <f t="shared" si="0"/>
         <v>3318.6</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>43081</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>360</v>
       </c>
-      <c r="E14" s="18">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="36">
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="33">
         <v>12</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="36">
-        <v>0</v>
-      </c>
-      <c r="K14" s="36">
+      <c r="J14" s="33">
+        <v>0</v>
+      </c>
+      <c r="K14" s="33">
         <v>1380.22</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="33">
         <v>4</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="33">
         <v>5</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="18">
         <f t="shared" si="0"/>
         <v>5520.88</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>43038</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>8</v>
       </c>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="36">
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="33">
         <v>13</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="36">
-        <v>1</v>
-      </c>
-      <c r="K15" s="36">
+      <c r="J15" s="33">
+        <v>1</v>
+      </c>
+      <c r="K15" s="33">
         <v>1841.13</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="33">
         <v>4</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="36">
         <v>4</v>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="18">
         <f t="shared" si="0"/>
         <v>7364.52</v>
       </c>
@@ -1507,33 +1554,33 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="17">
         <v>43004</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>64</v>
       </c>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30"/>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="27"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30">
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27">
         <f>SUM(L3:L15)</f>
         <v>46</v>
       </c>
-      <c r="M16" s="30"/>
+      <c r="M16" s="27"/>
       <c r="O16" t="s">
         <v>59</v>
       </c>
@@ -1542,462 +1589,462 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="15">
         <v>14</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="17">
         <v>43004</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>184</v>
       </c>
-      <c r="E17" s="18">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18">
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <v>42968</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>48</v>
       </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="17">
         <v>42968</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <v>64</v>
       </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="17">
         <v>42921</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="15">
         <v>104</v>
       </c>
-      <c r="E20" s="18">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="15">
         <v>22</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="17">
         <v>42921</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="15">
         <v>296</v>
       </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="15">
         <v>19</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="17">
         <v>42921</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <v>24</v>
       </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="15">
         <v>20</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="17">
         <v>42921</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <v>280</v>
       </c>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="15">
         <v>21</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="17">
         <v>42921</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="15">
         <v>312</v>
       </c>
-      <c r="E24" s="18">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="15">
         <v>23</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="17">
         <v>42921</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="15">
         <v>328</v>
       </c>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="15">
         <v>24</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="21">
         <v>42863</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="15">
         <v>40</v>
       </c>
-      <c r="E26" s="18">
-        <v>1</v>
-      </c>
-      <c r="F26" s="18">
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="19">
         <v>42772</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="15">
         <v>64</v>
       </c>
-      <c r="E27" s="18">
-        <v>1</v>
-      </c>
-      <c r="F27" s="18">
+      <c r="E27" s="15">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="15">
         <v>25</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="19">
         <v>42772</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="15">
         <v>104</v>
       </c>
-      <c r="E28" s="18">
-        <v>0</v>
-      </c>
-      <c r="F28" s="18">
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="15">
         <v>27</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="19">
         <v>42716</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="15">
         <v>80</v>
       </c>
-      <c r="E29" s="18">
-        <v>0</v>
-      </c>
-      <c r="F29" s="18">
+      <c r="E29" s="15">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="15">
         <v>28</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="19">
         <v>42674</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="15">
         <v>240</v>
       </c>
-      <c r="E30" s="18">
-        <v>0</v>
-      </c>
-      <c r="F30" s="18">
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="15">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="19">
         <v>42604</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="15">
         <v>40</v>
       </c>
-      <c r="E31" s="18">
-        <v>0</v>
-      </c>
-      <c r="F31" s="18">
+      <c r="E31" s="15">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="A32" s="15">
         <v>29</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="21">
         <v>42604</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="15">
         <v>40</v>
       </c>
-      <c r="E32" s="18">
-        <v>0</v>
-      </c>
-      <c r="F32" s="18">
+      <c r="E32" s="15">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="A33" s="15">
         <v>33</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="21">
         <v>42492</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="15">
         <v>200</v>
       </c>
-      <c r="E33" s="18">
-        <v>1</v>
-      </c>
-      <c r="F33" s="18">
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
+      <c r="A34" s="15">
         <v>31</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="17">
         <v>42492</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="15">
         <v>144</v>
       </c>
-      <c r="E34" s="18">
-        <v>0</v>
-      </c>
-      <c r="F34" s="18">
+      <c r="E34" s="15">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="15">
         <v>32</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="21">
         <v>42492</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="15">
         <v>32</v>
       </c>
-      <c r="E35" s="18">
-        <v>0</v>
-      </c>
-      <c r="F35" s="18">
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
+      <c r="A36" s="15">
         <v>35</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="17">
         <v>42347</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <v>24</v>
       </c>
-      <c r="E36" s="18">
-        <v>0</v>
-      </c>
-      <c r="F36" s="18">
+      <c r="E36" s="15">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
+      <c r="A37" s="15">
         <v>34</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="21">
         <v>42347</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="15">
         <v>48</v>
       </c>
-      <c r="E37" s="18">
-        <v>0</v>
-      </c>
-      <c r="F37" s="18">
+      <c r="E37" s="15">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+      <c r="A38" s="15">
         <v>36</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="17">
         <v>42311</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="15">
         <v>24</v>
       </c>
-      <c r="E38" s="18">
-        <v>1</v>
-      </c>
-      <c r="F38" s="18">
+      <c r="E38" s="15">
+        <v>1</v>
+      </c>
+      <c r="F38" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="A39" s="15">
         <v>37</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="17">
         <v>42262</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="15">
         <v>72</v>
       </c>
-      <c r="E39" s="18">
-        <v>0</v>
-      </c>
-      <c r="F39" s="18">
+      <c r="E39" s="15">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2013,11 +2060,1175 @@
     <mergeCell ref="H1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:C39">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>$B3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23">
+        <v>43364</v>
+      </c>
+      <c r="D3" s="24">
+        <v>424</v>
+      </c>
+      <c r="E3" s="24">
+        <v>0</v>
+      </c>
+      <c r="F3" s="24">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35">
+        <v>0</v>
+      </c>
+      <c r="H3" s="35">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
+        <v>43361</v>
+      </c>
+      <c r="D4" s="15">
+        <v>448</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="33">
+        <v>0</v>
+      </c>
+      <c r="K4" s="26">
+        <v>2</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17">
+        <v>43361</v>
+      </c>
+      <c r="D5" s="15">
+        <v>456</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="33">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="17">
+        <v>43361</v>
+      </c>
+      <c r="D6" s="15">
+        <v>464</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="33">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17">
+        <v>43318</v>
+      </c>
+      <c r="D7" s="15">
+        <v>600</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="33">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43270</v>
+      </c>
+      <c r="D8" s="15">
+        <v>736</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15">
+        <v>9</v>
+      </c>
+      <c r="H8" s="33">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="17">
+        <v>43270</v>
+      </c>
+      <c r="D9" s="15">
+        <v>624</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>12</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>7</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17">
+        <v>43270</v>
+      </c>
+      <c r="D10" s="15">
+        <v>616</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="33">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="17">
+        <v>43224</v>
+      </c>
+      <c r="D11" s="15">
+        <v>920</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>9</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="19">
+        <v>43178</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1024</v>
+      </c>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="33">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="19">
+        <v>43178</v>
+      </c>
+      <c r="D13" s="15">
+        <v>704</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0</v>
+      </c>
+      <c r="K13" s="33">
+        <v>11</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="17">
+        <v>43081</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1360</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="33">
+        <v>0</v>
+      </c>
+      <c r="K14" s="33">
+        <v>12</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="17">
+        <v>43038</v>
+      </c>
+      <c r="D15" s="15">
+        <v>360</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>8</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0</v>
+      </c>
+      <c r="K15" s="33">
+        <v>13</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>14</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="17">
+        <v>43004</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1232</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="17">
+        <v>43004</v>
+      </c>
+      <c r="D17" s="15">
+        <v>712</v>
+      </c>
+      <c r="E17" s="24">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>9</v>
+      </c>
+      <c r="H17" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="20">
+        <v>42968</v>
+      </c>
+      <c r="D18" s="15">
+        <v>616</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="17">
+        <v>42968</v>
+      </c>
+      <c r="D19" s="15">
+        <v>696</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="17">
+        <v>42921</v>
+      </c>
+      <c r="D20" s="15">
+        <v>584</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>4</v>
+      </c>
+      <c r="H20" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="17">
+        <v>42921</v>
+      </c>
+      <c r="D21" s="15">
+        <v>160</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>20</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="17">
+        <v>42921</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1218</v>
+      </c>
+      <c r="E22" s="24">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="17">
+        <v>42921</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1088</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>22</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="17">
+        <v>42921</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>23</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="17">
+        <v>42921</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1088</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>24</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="21">
+        <v>42863</v>
+      </c>
+      <c r="D26" s="15">
+        <v>416</v>
+      </c>
+      <c r="E26" s="24">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15">
+        <v>1</v>
+      </c>
+      <c r="G26" s="33">
+        <v>13</v>
+      </c>
+      <c r="H26" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>25</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="19">
+        <v>42772</v>
+      </c>
+      <c r="D27" s="15">
+        <v>248</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>26</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="19">
+        <v>42772</v>
+      </c>
+      <c r="D28" s="15">
+        <v>408</v>
+      </c>
+      <c r="E28" s="24">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15">
+        <v>1</v>
+      </c>
+      <c r="G28" s="33">
+        <v>0</v>
+      </c>
+      <c r="H28" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>27</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="19">
+        <v>42716</v>
+      </c>
+      <c r="D29" s="15">
+        <v>640</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="33">
+        <v>9</v>
+      </c>
+      <c r="H29" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>28</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="19">
+        <v>42674</v>
+      </c>
+      <c r="D30" s="15">
+        <v>624</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>1</v>
+      </c>
+      <c r="G30" s="33">
+        <v>0</v>
+      </c>
+      <c r="H30" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>29</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="21">
+        <v>42604</v>
+      </c>
+      <c r="D31" s="15">
+        <v>208</v>
+      </c>
+      <c r="E31" s="24">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="19">
+        <v>42604</v>
+      </c>
+      <c r="D32" s="15">
+        <v>112</v>
+      </c>
+      <c r="E32" s="24">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="33">
+        <v>0</v>
+      </c>
+      <c r="H32" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>31</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="17">
+        <v>42492</v>
+      </c>
+      <c r="D33" s="15">
+        <v>608</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>32</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="21">
+        <v>42492</v>
+      </c>
+      <c r="D34" s="15">
+        <v>336</v>
+      </c>
+      <c r="E34" s="24">
+        <v>1</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0</v>
+      </c>
+      <c r="G34" s="33">
+        <v>0</v>
+      </c>
+      <c r="H34" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>33</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="21">
+        <v>42492</v>
+      </c>
+      <c r="D35" s="15">
+        <v>416</v>
+      </c>
+      <c r="E35" s="24">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>1</v>
+      </c>
+      <c r="G35" s="33">
+        <v>8</v>
+      </c>
+      <c r="H35" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>34</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="21">
+        <v>42347</v>
+      </c>
+      <c r="D36" s="15">
+        <v>240</v>
+      </c>
+      <c r="E36" s="24">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>35</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="17">
+        <v>42347</v>
+      </c>
+      <c r="D37" s="15">
+        <v>280</v>
+      </c>
+      <c r="E37" s="24">
+        <v>1</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>36</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="17">
+        <v>42311</v>
+      </c>
+      <c r="D38" s="15">
+        <v>88</v>
+      </c>
+      <c r="E38" s="24">
+        <v>0</v>
+      </c>
+      <c r="F38" s="15">
+        <v>0</v>
+      </c>
+      <c r="G38" s="33">
+        <v>11</v>
+      </c>
+      <c r="H38" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>37</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="17">
+        <v>42262</v>
+      </c>
+      <c r="D39" s="15">
+        <v>328</v>
+      </c>
+      <c r="E39" s="24">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H39" s="33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:H39">
+    <sortCondition ref="A3"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:C39">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$B3=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>